--- a/data/trans_dic/P4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2</t>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 94,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>29,12%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 33,39</t>
+          <t>7,49; 39,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,65; 33,71</t>
+          <t>7,36; 39,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 39,77</t>
+          <t>10,77; 45,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 39,9</t>
+          <t>8,48; 43,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 32,7</t>
+          <t>11,76; 45,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,39; 35,16</t>
+          <t>6,06; 35,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 45,26</t>
+          <t>7,63; 34,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 38,13</t>
+          <t>11,51; 39,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,68; 28,99</t>
+          <t>14,78; 45,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,34; 29,32</t>
+          <t>18,88; 53,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 36,68</t>
+          <t>8,88; 30,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 34,71</t>
+          <t>10,52; 30,59</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,42; 36,72</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 38,76</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 42,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>52,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>46,73%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>45,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>47,54%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 60,66</t>
+          <t>30,81; 74,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,51; 63,04</t>
+          <t>29,76; 76,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 56,08</t>
+          <t>29,26; 74,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,02; 64,09</t>
+          <t>28,58; 77,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,24; 45,83</t>
+          <t>5,91; 40,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,85; 49,7</t>
+          <t>22,28; 48,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,87; 47,55</t>
+          <t>26,32; 53,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 44,85</t>
+          <t>26,65; 55,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,14; 49,43</t>
+          <t>26,73; 55,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,67; 52,52</t>
+          <t>12,46; 39,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,19; 48,24</t>
+          <t>32,06; 60,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,45; 52,34</t>
+          <t>33,29; 63,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33,23; 63,18</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33,34; 65,81</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11,69; 34,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>21,28%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>25,96%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 25,08</t>
+          <t>8,01; 27,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 22,02</t>
+          <t>6,17; 24,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 24,36</t>
+          <t>6,83; 25,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 26,43</t>
+          <t>9,97; 30,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 32,94</t>
+          <t>18,26; 43,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 32,31</t>
+          <t>15,72; 30,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,33; 33,72</t>
+          <t>14,4; 29,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 34,27</t>
+          <t>15,56; 31,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 27,66</t>
+          <t>15,74; 32,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,28; 25,39</t>
+          <t>15,13; 32,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,62; 27,17</t>
+          <t>13,92; 26,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,62; 27,67</t>
+          <t>13,13; 24,91</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 25,89</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 28,15</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19,12; 34,43</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>18,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19,03%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 26,07</t>
+          <t>11,05; 28,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,92; 26,6</t>
+          <t>11,66; 30,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 27,69</t>
+          <t>11,92; 29,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 27,87</t>
+          <t>12,06; 29,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 27,71</t>
+          <t>11,76; 30,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 28,39</t>
+          <t>11,01; 26,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 29,24</t>
+          <t>10,68; 25,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 28,08</t>
+          <t>11,45; 26,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 24,75</t>
+          <t>10,15; 25,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 25,86</t>
+          <t>13,63; 30,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 26,32</t>
+          <t>13,0; 24,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 25,85</t>
+          <t>13,25; 25,0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 25,38</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 25,26</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 28,51</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,75; 31,66</t>
+          <t>10,87; 35,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 32,34</t>
+          <t>10,09; 39,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,52; 31,26</t>
+          <t>10,36; 41,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,16; 29,33</t>
+          <t>10,18; 36,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,03; 35,7</t>
+          <t>10,33; 38,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 34,21</t>
+          <t>10,53; 37,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 31,67</t>
+          <t>10,34; 36,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,63; 34,23</t>
+          <t>10,38; 36,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,25; 29,81</t>
+          <t>10,92; 38,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 29,58</t>
+          <t>14,56; 42,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,54; 27,54</t>
+          <t>13,98; 31,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 29,21</t>
+          <t>12,73; 33,22</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,18; 34,37</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 31,89</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 35,5</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 27,01</t>
+          <t>2,32; 21,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,44; 27,69</t>
+          <t>4,76; 27,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 24,6</t>
+          <t>2,31; 22,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,76; 25,99</t>
+          <t>2,5; 24,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,06; 33,57</t>
+          <t>2,09; 21,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,42; 34,24</t>
+          <t>8,23; 36,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 35,77</t>
+          <t>8,17; 36,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,16; 35,93</t>
+          <t>8,03; 35,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,32; 26,48</t>
+          <t>7,66; 34,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,37; 28,12</t>
+          <t>6,01; 38,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,09; 26,89</t>
+          <t>7,27; 23,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 27,33</t>
+          <t>8,6; 25,59</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 23,06</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 23,54</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 25,27</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>22,73%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,49</t>
+          <t>17,33; 31,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,81</t>
+          <t>17,88; 34,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,3; 27,99</t>
+          <t>17,87; 32,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,34; 28,98</t>
+          <t>18,45; 35,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,14</t>
+          <t>15,82; 26,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,7; 29,05</t>
+          <t>17,76; 26,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,05; 29,58</t>
+          <t>18,32; 27,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,5; 29,17</t>
+          <t>19,63; 28,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,59; 26,28</t>
+          <t>19,91; 29,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,81; 26,9</t>
+          <t>19,73; 29,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,14</t>
+          <t>19,31; 27,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,95</t>
+          <t>19,84; 28,77</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 28,83</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 30,81</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 26,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 94,38%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14028</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17448</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20867</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22245</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31512</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14720</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17326</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20648</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25359</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>33062</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28748</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34774</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>41515</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>47604</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>64574</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5402; 28419</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6569; 34919</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9396; 39673</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8583; 43602</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15122; 58544</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5011; 29183</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7400; 33056</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10102; 35018</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13809; 42345</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17589; 49549</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13742; 46659</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19584; 56959</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25235; 64276</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>29523; 75430</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>40786; 93706</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67348</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>84822</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>68733</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76641</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37830</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>41670</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58362</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43554</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42002</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31166</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>109019</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>143184</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>112287</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>118643</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>68997</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>39599; 95640</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47357; 122084</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39588; 101166</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41504; 111987</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10264; 70222</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26468; 57722</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38772; 78849</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29491; 61365</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27884; 57878</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15640; 49796</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>79283; 149021</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>101995; 193266</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>81722; 155390</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>83195; 164246</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>34991; 103270</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21090</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18802</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24309</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>52198</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45834</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54296</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46422</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44881</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50811</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>66924</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75805</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>65223</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>69190</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>103009</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10769; 36581</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9650; 38935</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8857; 33518</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13257; 40946</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32911; 78393</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32488; 63542</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36532; 75873</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31168; 63937</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30265; 61985</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32750; 70431</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47501; 90687</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53839; 102157</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>45655; 85431</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>50209; 91521</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>75867; 136591</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>31125</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37740</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33080</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31986</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>40676</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31360</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35076</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31285</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27175</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39555</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62485</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>72815</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>64365</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>59161</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>80231</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18071; 47395</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21765; 56258</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19218; 48108</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18843; 46838</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23330; 60255</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20018; 48015</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22119; 52857</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20264; 47661</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16394; 40496</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25158; 56947</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>44869; 84623</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>52188; 98465</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>47440; 85823</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>42183; 80278</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>59038; 109229</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>28046</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>31141</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26926</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23909</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30206</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19184</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20671</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17142</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17573</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34922</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>47230</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51813</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>44069</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>41482</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>65127</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15101; 49945</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15885; 62945</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13689; 54517</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12547; 45143</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15253; 56148</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9189; 32534</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10084; 35571</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8128; 28820</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8398; 29352</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18026; 53174</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31625; 71936</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32448; 84685</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>27725; 72311</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>25651; 63819</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>41642; 96384</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8450</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13333</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8152</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8752</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10198</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16351</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20989</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15368</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>15630</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>26865</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>24801</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>34322</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>23520</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>24382</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>37063</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2095; 19664</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5206; 29538</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2019; 19328</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2253; 21643</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2738; 28107</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7033; 31138</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8894; 39469</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6623; 29269</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6554; 29805</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>8395; 53687</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12768; 40942</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18755; 55818</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>12327; 39161</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>13054; 41366</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>17601; 68463</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>170088</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>205994</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>176559</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>187841</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>202621</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>169119</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>206719</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>174419</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>172621</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>216381</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>339207</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>412713</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>350978</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>360462</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>419002</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>126136; 231528</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>153428; 291803</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>130945; 241726</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>138164; 268975</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>151801; 255943</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>135444; 204847</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>166990; 249233</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>144577; 209276</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>142195; 208234</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>174300; 264662</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>287824; 413668</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>351139; 509129</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>292837; 423647</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>309331; 450681</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>351259; 493906</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>